--- a/Reverse_anglesIn_60.xlsx
+++ b/Reverse_anglesIn_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,586 +440,2938 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-494.7013210871114</v>
+        <v>-518.7497450400599</v>
       </c>
       <c r="B2" t="n">
-        <v>-57.81816715774954</v>
+        <v>-58.6245609724729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-453.5869895648831</v>
+        <v>-509.8177990265593</v>
       </c>
       <c r="B3" t="n">
-        <v>-56.33653277962071</v>
+        <v>-58.31505020018438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-421.3541617675324</v>
+        <v>-501.1805770609176</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.24801516832768</v>
+        <v>-58.01485121346631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-389.9886860248755</v>
+        <v>-492.8160964390333</v>
       </c>
       <c r="B5" t="n">
-        <v>-54.14951921498941</v>
+        <v>-57.7234614309686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-362.2461555208284</v>
+        <v>-484.7048399951532</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.21853909467281</v>
+        <v>-57.44042830383805</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-336.7408678182107</v>
+        <v>-476.829180007951</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.39008548998519</v>
+        <v>-57.16533116790845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-312.8082114218672</v>
+        <v>-469.1731307138971</v>
       </c>
       <c r="B8" t="n">
-        <v>-51.63256775321335</v>
+        <v>-56.89777731716551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-290.2347408289928</v>
+        <v>-461.7224307488217</v>
       </c>
       <c r="B9" t="n">
-        <v>-50.94051968425958</v>
+        <v>-56.63741403348405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-268.5215782526723</v>
+        <v>-454.4639368846538</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.28399512370031</v>
+        <v>-56.38390360192359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-248.4307107820302</v>
+        <v>-447.3859338516639</v>
       </c>
       <c r="B11" t="n">
-        <v>-49.7241436518778</v>
+        <v>-56.13694527144128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-228.8722699112541</v>
+        <v>-440.477380534767</v>
       </c>
       <c r="B12" t="n">
-        <v>-49.18487835739928</v>
+        <v>-55.89623984378052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-210.2323451044688</v>
+        <v>-433.7285496770261</v>
       </c>
       <c r="B13" t="n">
-        <v>-48.69885707031082</v>
+        <v>-55.66152853729726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-192.1187149280368</v>
+        <v>-427.1302136455542</v>
       </c>
       <c r="B14" t="n">
-        <v>-48.23790221136286</v>
+        <v>-55.43255211185333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-174.4644052128377</v>
+        <v>-420.6741181147472</v>
       </c>
       <c r="B15" t="n">
-        <v>-47.7979935318705</v>
+        <v>-55.20908054709017</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-157.5054866382226</v>
+        <v>-414.3525815203159</v>
       </c>
       <c r="B16" t="n">
-        <v>-47.40144524811451</v>
+        <v>-54.9908933911255</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-141.0108441972304</v>
+        <v>-408.1584615639343</v>
       </c>
       <c r="B17" t="n">
-        <v>-47.0298946240086</v>
+        <v>-54.77778045249486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-124.9603224367655</v>
+        <v>-402.0852818812308</v>
       </c>
       <c r="B18" t="n">
-        <v>-46.68359653763771</v>
+        <v>-54.56955118496366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-109.2960306905907</v>
+        <v>-396.1269498117577</v>
       </c>
       <c r="B19" t="n">
-        <v>-46.35865344845529</v>
+        <v>-54.36602067787727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-94.0006292020461</v>
+        <v>-390.2778675045362</v>
       </c>
       <c r="B20" t="n">
-        <v>-46.05522294626441</v>
+        <v>-54.16701759726325</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-79.06855140199299</v>
+        <v>-384.5327891951293</v>
       </c>
       <c r="B21" t="n">
-        <v>-45.77298202215721</v>
+        <v>-53.97237754198905</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-64.44128088425119</v>
+        <v>-378.8868702513669</v>
       </c>
       <c r="B22" t="n">
-        <v>-45.50781797478648</v>
+        <v>-53.78194729285204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-50.01413590355286</v>
+        <v>-373.3354717263205</v>
       </c>
       <c r="B23" t="n">
-        <v>-45.25098021406444</v>
+        <v>-53.59557419447248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-35.96595011731504</v>
+        <v>-367.8744671346477</v>
       </c>
       <c r="B24" t="n">
-        <v>-45.02019761014861</v>
+        <v>-53.41312620939648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-22.03964272206273</v>
+        <v>-362.4999099781591</v>
       </c>
       <c r="B25" t="n">
-        <v>-44.79091679414645</v>
+        <v>-53.23447258470616</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-8.46446051653747</v>
+        <v>-357.2080557917479</v>
       </c>
       <c r="B26" t="n">
-        <v>-44.58681860218711</v>
+        <v>-53.05948591111149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.959941990318432</v>
+        <v>-351.9954369540409</v>
       </c>
       <c r="B27" t="n">
-        <v>-44.3885988516563</v>
+        <v>-52.88804779755525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18.17003467320734</v>
+        <v>-346.858816172385</v>
       </c>
       <c r="B28" t="n">
-        <v>-44.20267935699722</v>
+        <v>-52.72004659399332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>31.19840733130201</v>
+        <v>-341.7950510306163</v>
       </c>
       <c r="B29" t="n">
-        <v>-44.02661504935327</v>
+        <v>-52.55536952616046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44.02031377110541</v>
+        <v>-336.8013869668857</v>
       </c>
       <c r="B30" t="n">
-        <v>-43.86335725584844</v>
+        <v>-52.39392218248764</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>56.76021500463309</v>
+        <v>-331.8750512295023</v>
       </c>
       <c r="B31" t="n">
-        <v>-43.70034455882885</v>
+        <v>-52.23560290867014</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>69.28538175924186</v>
+        <v>-327.01343173982</v>
       </c>
       <c r="B32" t="n">
-        <v>-43.55232748640514</v>
+        <v>-52.08031454592145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>81.66573249986388</v>
+        <v>-322.2141923480372</v>
       </c>
       <c r="B33" t="n">
-        <v>-43.41195491516616</v>
+        <v>-51.92797303431163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>93.94127204596911</v>
+        <v>-317.4750272396847</v>
       </c>
       <c r="B34" t="n">
-        <v>-43.27517336620405</v>
+        <v>-51.77849136579658</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>106.0478201406441</v>
+        <v>-312.7937884135512</v>
       </c>
       <c r="B35" t="n">
-        <v>-43.14945486227621</v>
+        <v>-51.63178842941407</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>118.0474088791015</v>
+        <v>-308.168415279389</v>
       </c>
       <c r="B36" t="n">
-        <v>-43.02851859569558</v>
+        <v>-51.48778469734701</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>129.9594381523715</v>
+        <v>-303.5969482779508</v>
       </c>
       <c r="B37" t="n">
-        <v>-42.90994626040435</v>
+        <v>-51.34640348307024</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>141.7132496738602</v>
+        <v>-299.0775999716765</v>
       </c>
       <c r="B38" t="n">
-        <v>-42.80263925254818</v>
+        <v>-51.20757617483059</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>153.3838091658805</v>
+        <v>-294.6086275550038</v>
       </c>
       <c r="B39" t="n">
-        <v>-42.69790362124142</v>
+        <v>-51.07123373473961</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>164.9253544864231</v>
+        <v>-290.1883367512759</v>
       </c>
       <c r="B40" t="n">
-        <v>-42.60216249254662</v>
+        <v>-50.93730709106081</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>176.3928546767671</v>
+        <v>-285.8151790019279</v>
       </c>
       <c r="B41" t="n">
-        <v>-42.50834264148072</v>
+        <v>-50.80573431908456</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>187.7720399025517</v>
+        <v>-281.4876165266527</v>
       </c>
       <c r="B42" t="n">
-        <v>-42.41897050984689</v>
+        <v>-50.67645143444171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>199.0973231097909</v>
+        <v>-277.204309387965</v>
       </c>
       <c r="B43" t="n">
-        <v>-42.32867624467607</v>
+        <v>-50.54940559838706</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>210.304148947739</v>
+        <v>-272.963778166933</v>
       </c>
       <c r="B44" t="n">
-        <v>-42.24757467502864</v>
+        <v>-50.42453152712637</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>221.438957283309</v>
+        <v>-268.7647846099848</v>
       </c>
       <c r="B45" t="n">
-        <v>-42.16929852322043</v>
+        <v>-50.30177885412567</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>232.5043006349349</v>
+        <v>-264.6061354626816</v>
       </c>
       <c r="B46" t="n">
-        <v>-42.09368698030483</v>
+        <v>-50.18109820656196</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>243.4720275005515</v>
+        <v>-260.4865617380368</v>
       </c>
       <c r="B47" t="n">
-        <v>-42.02525307805889</v>
+        <v>-50.06243249179823</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>254.3925639927747</v>
+        <v>-256.4050346224976</v>
       </c>
       <c r="B48" t="n">
-        <v>-41.95604675979911</v>
+        <v>-49.94574027400122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>265.2506795749148</v>
+        <v>-252.3603336387482</v>
       </c>
       <c r="B49" t="n">
-        <v>-41.89031539501835</v>
+        <v>-49.83096404735964</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>276.0361316890397</v>
+        <v>-248.3515531850757</v>
       </c>
       <c r="B50" t="n">
-        <v>-41.82814842026557</v>
+        <v>-49.718067775858</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>286.7683342196653</v>
+        <v>-244.377640705862</v>
       </c>
       <c r="B51" t="n">
-        <v>-41.76835390590545</v>
+        <v>-49.60700278906373</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>297.4234047005602</v>
+        <v>-240.4376433702399</v>
       </c>
       <c r="B52" t="n">
-        <v>-41.71261884725031</v>
+        <v>-49.49772641512583</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>308.04511666877</v>
+        <v>-236.5306585606966</v>
       </c>
       <c r="B53" t="n">
-        <v>-41.65682864263312</v>
+        <v>-49.39019801504562</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>318.6203866311386</v>
+        <v>-232.6557995761972</v>
       </c>
       <c r="B54" t="n">
-        <v>-41.60134252768251</v>
+        <v>-49.28437685208165</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>329.1323941859579</v>
+        <v>-228.8122284536276</v>
       </c>
       <c r="B55" t="n">
-        <v>-41.55050001747088</v>
+        <v>-49.18022442261675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>339.5621744538091</v>
+        <v>-224.9991848462092</v>
       </c>
       <c r="B56" t="n">
-        <v>-41.50680779390353</v>
+        <v>-49.07770701645506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>349.9650558197805</v>
+        <v>-221.2158428852646</v>
       </c>
       <c r="B57" t="n">
-        <v>-41.46106934907704</v>
+        <v>-48.97678460729244</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>360.3551511931805</v>
+        <v>-217.4614794579044</v>
       </c>
       <c r="B58" t="n">
-        <v>-41.41248527994055</v>
+        <v>-48.87742383153023</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>370.6553694526281</v>
+        <v>-213.7353635035186</v>
       </c>
       <c r="B59" t="n">
-        <v>-41.37307663905867</v>
+        <v>-48.77958971759566</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>380.9382992373044</v>
+        <v>-210.0367977443404</v>
       </c>
       <c r="B60" t="n">
-        <v>-41.33090511970865</v>
+        <v>-48.68324880685209</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>391.1893137954485</v>
+        <v>-206.3651452590793</v>
       </c>
       <c r="B61" t="n">
-        <v>-41.28849754154711</v>
+        <v>-48.588371416066</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>401.362110090886</v>
+        <v>-202.7197502946842</v>
       </c>
       <c r="B62" t="n">
-        <v>-41.25478550275316</v>
+        <v>-48.49492545557641</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>411.5283921333024</v>
+        <v>-199.1000014043244</v>
       </c>
       <c r="B63" t="n">
-        <v>-41.21707070334657</v>
+        <v>-48.40288126196195</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>421.6431243219875</v>
+        <v>-195.5053146871129</v>
       </c>
       <c r="B64" t="n">
-        <v>-41.18180833047558</v>
+        <v>-48.31221075927292</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>431.7348585208972</v>
+        <v>-191.9350596088782</v>
       </c>
       <c r="B65" t="n">
-        <v>-41.14646582535025</v>
+        <v>-48.22288106589618</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>441.7887412696533</v>
+        <v>-188.3887404375642</v>
       </c>
       <c r="B66" t="n">
-        <v>-41.11242561690575</v>
+        <v>-48.13486947824839</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>451.7991107870591</v>
+        <v>-184.865791999363</v>
       </c>
       <c r="B67" t="n">
-        <v>-41.0814272349344</v>
+        <v>-48.04814690628427</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>461.7852410354412</v>
+        <v>-181.365700590925</v>
       </c>
       <c r="B68" t="n">
-        <v>-41.05057179955011</v>
+        <v>-47.96268772603113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>471.7323095809829</v>
+        <v>-177.8880087941902</v>
       </c>
       <c r="B69" t="n">
-        <v>-41.02165133826826</v>
+        <v>-47.87847021715019</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>481.6557766714192</v>
+        <v>-174.4321582078476</v>
       </c>
       <c r="B70" t="n">
-        <v>-40.99327786289118</v>
+        <v>-47.79546363028074</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>491.5397975944438</v>
+        <v>-170.9977215408767</v>
       </c>
       <c r="B71" t="n">
-        <v>-40.96852041103933</v>
+        <v>-47.71364758785528</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>501.411094478865</v>
+        <v>-167.5842499808255</v>
       </c>
       <c r="B72" t="n">
-        <v>-40.9371225572667</v>
+        <v>-47.63299905697237</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>511.236096941723</v>
+        <v>-164.1912998977079</v>
       </c>
       <c r="B73" t="n">
-        <v>-40.91357499126054</v>
+        <v>-47.55349508577692</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>521.0518833057728</v>
+        <v>-160.8184553873849</v>
       </c>
       <c r="B74" t="n">
-        <v>-40.88818823993198</v>
+        <v>-47.47511435645552</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-157.4652872906427</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-47.39783398320123</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-154.1314052667627</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-47.32163374554742</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-150.8164351218082</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-47.24649442479723</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-147.5199607141196</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-47.17239262764843</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-144.241678691145</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-47.09931426813152</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-140.9811873799622</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-47.02723635481244</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-137.7381694474483</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-46.95614262764492</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-134.5122805050869</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-46.88601413787503</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-131.3032002677354</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-46.81683380460377</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-128.1106312814275</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-46.74858603346662</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-124.9342275083965</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-46.68125055172651</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-121.7737440872984</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-46.61481563180146</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-118.6288684739637</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-46.5492635669356</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-115.4993113033941</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-46.48457787603198</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-112.3848002420176</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-46.420743657076</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-109.285074012242</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-46.35774649210911</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-106.1998908742053</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-46.29557362148103</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-103.1289853531863</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-46.23420971783277</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-100.0721085107366</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-46.17364071651875</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-97.02901757275872</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-46.1138528453756</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-93.99948293514862</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-46.05483319298947</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-90.98327578672009</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-45.99656889936204</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-87.9802035443816</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-45.93905000898635</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-84.99001946592769</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-45.88226138773529</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-82.01250114630811</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-45.82619001091305</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-79.04748022097122</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-45.77082757151551</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-76.09470007221285</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-45.71615728899195</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-73.15404295313442</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-45.66217519263951</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-70.22524730032963</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-45.60886379507618</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-67.30815331333459</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-45.55621476090761</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-64.40259761956719</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-45.50421935433408</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-61.50838008536838</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-45.45286518703379</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-58.62529640831233</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-45.40213920653972</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-55.75325909360235</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-45.35203943115362</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-52.89202393384918</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-45.30254876269587</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-50.04145342255863</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-45.25366000174143</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-47.20139038978467</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-45.20536404988081</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-44.37167269879863</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-45.15765111260344</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-41.55218839896626</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-45.11051619173635</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-38.74270425254402</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-45.06394228111465</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-35.9431529460821</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-45.01792845731674</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-33.15337643873582</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-44.97246470330445</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-30.37319064505754</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-44.9275385174966</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-27.60249687683012</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-44.88314539155502</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-24.84116926197092</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-44.83927828104141</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-22.0890541828759</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-44.79592716211516</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-19.34603049689341</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-44.75308503639528</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-16.61195014237007</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-44.71074216836831</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-13.88671938675247</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-44.66889429004896</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-11.1702165632315</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-44.62753395259232</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-8.462322612075081</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-44.58665404108826</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-5.762884617667461</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-44.54624389682553</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-3.071852903251179</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-44.50630334078233</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-0.3890358214691282</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-44.46681729243467</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>2.285598415179722</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-44.42778719312106</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>4.952215338619161</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-44.38920062204149</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>7.610879188062713</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-44.35105555385697</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>10.26172288086621</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-44.31334262439432</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>12.90485602328181</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-44.27605479698988</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>15.54033473194512</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-44.23919070272877</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>18.16826560280579</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-44.20274347341108</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>20.78878419147242</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-44.16670314948758</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>23.40196922767387</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-44.13106564874141</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>26.00789489322795</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-44.09582734874262</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>28.60667118548691</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-44.06098074462213</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>31.1983688029272</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-44.02652222899018</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>33.78308805207759</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-43.99244524112304</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>36.36093080630112</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-43.95874292211465</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>38.93195714023301</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-43.92541266529265</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>41.49624967939335</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-43.89244953036776</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>44.05391850122442</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-43.8598453780408</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>46.60499830420886</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-43.82760045172567</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>49.14961275774139</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-43.79570500035391</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>51.68781276757944</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-43.76415713916717</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>54.21970368445731</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-43.73294915263925</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>56.74532420678557</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-43.70208028472176</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>59.26475241710301</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-43.67154580704686</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>61.77808877231313</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-43.64133810107614</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>64.28539177693582</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-43.61145421288885</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>66.78671908422506</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-43.58189123951324</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>69.28215584205941</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-43.55264323133282</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>71.77176334918229</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-43.52370667257746</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>74.25559768873163</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-43.49507891320014</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>76.73376739216991</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-43.46675100974299</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>79.20627897990224</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-43.43872550425777</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>81.67324296331631</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-43.41099329668478</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>84.1346755775966</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-43.38355557709789</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>86.59070590247248</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-43.35640144605433</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>89.04132388906561</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-43.32953488923679</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>91.48662333537213</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-43.30294839125933</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>93.92666149753303</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-43.27663861956522</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>96.36149749474347</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-43.25060193189897</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>98.79119741923196</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-43.22483368007864</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>101.2157935753447</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-43.19933341291784</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>103.6353557074292</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-43.17409586929187</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>106.0499447566214</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-43.14911689440962</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>108.4595716256913</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-43.12439852501028</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>110.8643733520219</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-43.09992756080359</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>113.2643218153519</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-43.0757100836947</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>115.6595176445976</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-43.05173744229155</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>118.0499800225662</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-43.02801003951777</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>120.4357748214673</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-43.00452297621309</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>122.8169573490524</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-42.98127276179778</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>125.1935547838366</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-42.95825853897389</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>127.5656420894158</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-42.93547456939597</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>129.9332472997165</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-42.91292009554358</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>132.296421098622</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-42.89059173935288</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>134.6551950553025</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-42.8684884898624</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>137.0096484585492</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-42.84660338831073</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>139.3598047225248</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-42.82493649536498</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>141.7056961601688</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-42.80348620750924</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>144.0473885240782</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-42.78224734741107</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>146.3849107228471</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-42.76121905441492</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>148.7183092166734</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-42.74039818394883</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>151.0476142770445</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-42.71978359631311</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>153.3728979074504</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-42.69936892900037</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>155.6941737530793</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-42.67915507195474</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>158.0114839440045</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-42.65913932847406</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>160.3248679477323</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-42.63931935642455</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>162.6343841366198</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-42.6196902367284</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>164.9400296201455</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-42.60025489849378</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>167.2418748365676</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-42.58100684855177</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>169.5399680155039</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-42.5619425557576</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>171.834309516187</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-42.54306436047985</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>174.1249570605108</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-42.52436716875794</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>176.4119366900081</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-42.50585042046632</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>178.6953069049195</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-42.48750876437306</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>180.9750649327103</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-42.46934493348898</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>183.2512836011568</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-42.45135199586457</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>185.5239635420011</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-42.43353208389786</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>187.7931514613678</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-42.41588153845782</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>190.0588848826534</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-42.39839770544636</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>192.3211875487441</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-42.3810801517916</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>194.5801075740196</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-42.36392438493809</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>196.8356698242797</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-42.34692969977081</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>199.0878894839466</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-42.33009610150992</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>201.3368208795413</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-42.31341878758361</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>203.5824638605247</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-42.29690028329938</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>205.8248817255742</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-42.28053370405076</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>208.0640905610221</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-42.26431966524773</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>210.3001142044645</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-42.24825698253257</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>212.5329845217072</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-42.23234352007106</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>214.7627430442557</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-42.21657588681256</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216.989407244034</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-42.20095387708391</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>219.2129979075509</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-42.18547668628873</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>221.4335537840252</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-42.17014128363093</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>223.6511049286411</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-42.1549456285368</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>225.8656579124057</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-42.13989084470336</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>228.0772718738894</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-42.12497111200399</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>230.2859365126461</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-42.11018951858205</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>232.4917052218349</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-42.09554118583442</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>234.6945885912622</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-42.08102638983301</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>236.8946261796351</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-42.06664162533775</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>239.0918297026392</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-42.05238742888172</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>241.2862252576547</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-42.03826218543592</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>243.477851376353</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-42.02426244079903</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>245.6667111775257</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-42.01038972884457</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>247.852842605793</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-41.99664062636321</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>250.0362610577318</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-41.98301483889785</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>252.2169897262449</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-41.96951111910233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>254.3950685050865</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-41.95612550929064</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>256.5705000455881</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-41.94286010048853</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>258.7433217258866</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-41.92971075566211</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>260.9135403995151</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-41.91667870515653</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>263.0811937700224</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-41.90376084069938</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>265.2462916689315</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-41.89095654802316</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>267.4088610802886</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-41.87826478148017</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>269.5689226550274</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-41.8656839037104</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>271.7264854755828</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-41.85321460355003</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>273.8815970649658</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-41.84085153302796</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>276.0342541615876</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-41.82859722549743</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>278.1844876909341</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-41.81644904317823</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>280.3323129101773</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-41.80440627855501</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>282.4777524999916</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-41.79246728021393</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>284.6208235488758</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-41.78063154886606</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>286.7615394216921</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-41.76889869371381</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>288.899942528928</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-41.75726405152042</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>291.0360264180008</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-41.74573076285817</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>293.1698267451294</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-41.73429485995279</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>295.3013446833248</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-41.72295779770329</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>297.4306164090286</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-41.71171609349402</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>299.5576416369723</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-41.70057149575972</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>301.6824659584331</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-41.68951830278547</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>303.8050788945184</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-41.67856052047236</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>305.9255094342784</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-41.66769465750488</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>308.0437741895483</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-41.65692074915483</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>310.1598867906275</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-41.64623723723668</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>312.273872133487</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-41.63564294038377</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>314.3857459502241</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-41.62513648501883</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>316.4955144558108</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-41.614718721699</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>318.6032064316257</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-41.60438667420756</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>320.7088396124385</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-41.5941391576013</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>322.8124009379192</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-41.58398003624684</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>324.9139342201136</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-41.5739041882317</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>327.0134633151192</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-41.56390881158175</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>329.1109810343722</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-41.55399711074568</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>331.2065159256873</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-41.5441658986099</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>333.3000722934719</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-41.53441634464397</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>335.3916782094789</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-41.52474528331694</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>337.4813377859765</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-41.51515389438821</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>339.569056452168</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-41.50564213956833</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>341.6548876570437</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-41.49620364716346</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>343.7388060286399</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-41.48684366370343</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>345.8208405776905</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-41.47755947247679</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>347.9010110262093</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-41.46834891398326</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>349.9793258940847</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-41.45921185846542</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>352.0557839321969</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-41.45015085268658</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>354.1304221521727</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-41.44116080559319</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>356.2032399016059</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-41.43224308195345</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>358.2742631073227</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-41.42339554585741</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>360.3434984642893</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-41.41461744700039</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>362.4109504826914</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-41.40591066650781</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>364.4766461500664</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-41.39727164258888</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>366.5405930327535</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-41.38870029615604</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>368.6027915321984</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-41.38019865885538</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>370.6632756263917</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-41.3717619956744</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>372.7220381887536</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-41.36339238782533</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>374.7791098166288</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-41.35508707043471</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>376.8344975480741</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-41.3468459913882</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>378.8882008567731</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-41.33867030293901</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>380.9402383332772</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-41.33055860739013</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>382.9906316696323</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-41.32250847283186</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>385.0393824687827</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-41.31452028987218</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>387.0865032224594</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-41.30659449541847</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>389.1320117800661</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-41.29872857791307</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>391.1759113122546</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-41.29092355900975</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>393.2182138847571</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-41.28317875062563</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>395.2589358313407</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-41.27549261661187</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>397.2980911636679</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-41.26786371144605</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>399.3356756099304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-41.26029426135146</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>401.3717144554681</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-41.25278147362257</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>403.4062134566904</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-41.24532536511146</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>405.4391861130492</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-41.23792519539484</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>407.470636601479</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-41.23058081979166</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>409.500579669841</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-41.22329167664669</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>411.5290221476747</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-41.21605729204312</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>413.5559786379151</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-41.20887710943036</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>415.5814571010962</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-41.20175015899131</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>417.6054730547311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-41.1946747170275</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>419.6280222126052</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-41.1876537007693</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>421.6491288144895</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-41.18068345310061</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>423.668799229264</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-41.17376420207878</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>425.6870370395749</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-41.16689651610073</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>427.7038560029724</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-41.16007919593056</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>429.7192651545422</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-41.15331213690526</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>431.7332738625361</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-41.14659341987566</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>433.7458951004339</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-41.13992367905355</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>435.7571340367944</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-41.13330184538567</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>437.7670026024959</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-41.12672814490335</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>439.7754980194643</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-41.12020319176859</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>441.7826475842854</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-41.11372387317918</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>443.7884466244432</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-41.10729155870148</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>445.7929128712098</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-41.10090465761188</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>447.7960422554863</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-41.09456519080337</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>449.7978570236351</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-41.08826935678496</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>451.7983643145586</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-41.08201758114461</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>453.7975632038681</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-41.07581130579464</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>455.7954665804019</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-41.06964914383362</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>457.7920858817952</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-41.06352932184546</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>459.7874244778608</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-41.05745310024039</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>461.7815002665256</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-41.05141842701507</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>463.7743019025149</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-41.04542898841593</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>465.7658596526832</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-41.03947816950169</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>467.7561687130645</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-41.03356937512197</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>469.7452302925066</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-41.02770396187979</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>471.7330721777562</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-41.02187631293464</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>473.719686696923</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-41.01609040771809</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>475.7050889767433</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-41.0103429702143</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>477.6892798736999</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-41.00463671391868</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>479.672277266688</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-40.9989664531607</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>481.6540736859906</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-40.99333750395217</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>483.6346852394811</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-40.98774699226585</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>485.6141194799556</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-40.98219331595051</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>487.5923892748292</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-40.97667686762767</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>489.569487920493</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-40.97119846801282</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>491.5454245329183</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-40.96575823259911</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>493.5202166659391</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-40.96035321779956</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>495.4938686767908</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-40.95498374957267</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>497.466384322857</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-40.9496506280825</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>499.4377692282877</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-40.9443532312162</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>501.4080323374541</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-40.93908989394463</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>503.3771772830032</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-40.9338632079146</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>505.3452146170179</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-40.92867009565246</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>507.3121456418882</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-40.92351147104307</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>509.2779841909441</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-40.91838678205728</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>511.2427364298234</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-40.9132944880953</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>513.2064012844099</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-40.90823561328299</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>515.1689947241109</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-40.90320950398447</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>517.1305111596937</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-40.89821739432577</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>519.0909683318811</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-40.89325676206557</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>521.0503605148364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-40.888328849955</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>523.0087062466092</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-40.88343243420695</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>524.9660086669934</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-40.87856611354837</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>526.9222711108506</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-40.8737307096491</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_60.xlsx
+++ b/Reverse_anglesIn_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,738 +440,730 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.1927120914183</v>
+        <v>-495.3132398834571</v>
       </c>
       <c r="B2" t="n">
-        <v>58.88733958508524</v>
+        <v>57.81624101431147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-491.2344781805477</v>
+        <v>-463.9505539648974</v>
       </c>
       <c r="B3" t="n">
-        <v>57.6740329321066</v>
+        <v>56.72099668185281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-460.3096651914324</v>
+        <v>-435.7493141243253</v>
       </c>
       <c r="B4" t="n">
-        <v>56.59378728794232</v>
+        <v>55.73748574690918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-432.4459816223308</v>
+        <v>-410.0150763420276</v>
       </c>
       <c r="B5" t="n">
-        <v>55.6227068559767</v>
+        <v>54.84731395942575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-406.9793863497298</v>
+        <v>-386.2562410859509</v>
       </c>
       <c r="B6" t="n">
-        <v>54.74302589383883</v>
+        <v>54.03640845425514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-383.4376474063382</v>
+        <v>-364.1132727749131</v>
       </c>
       <c r="B7" t="n">
-        <v>53.9411020176997</v>
+        <v>53.29373445894104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-361.4742186797523</v>
+        <v>-343.3159766611511</v>
       </c>
       <c r="B8" t="n">
-        <v>53.20621339424959</v>
+        <v>52.61046028562456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-340.8277758925615</v>
+        <v>-323.6563553483092</v>
       </c>
       <c r="B9" t="n">
-        <v>52.52975306562738</v>
+        <v>51.97938007393375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-321.2966952530385</v>
+        <v>-304.9712167003029</v>
       </c>
       <c r="B10" t="n">
-        <v>51.90468929823817</v>
+        <v>51.39453500115486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-302.7223995573951</v>
+        <v>-287.1302841159158</v>
       </c>
       <c r="B11" t="n">
-        <v>51.32519548568797</v>
+        <v>50.85093296233484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-284.9780359945815</v>
+        <v>-270.0279271356117</v>
       </c>
       <c r="B12" t="n">
-        <v>50.78638260096206</v>
+        <v>50.34434163814588</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-267.9606230892397</v>
+        <v>-253.5773604357529</v>
       </c>
       <c r="B13" t="n">
-        <v>50.28410397444035</v>
+        <v>49.8711383594408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-251.585380256987</v>
+        <v>-237.706497403797</v>
       </c>
       <c r="B14" t="n">
-        <v>49.8148035032788</v>
+        <v>49.42820109586672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-235.7817638363692</v>
+        <v>-222.3547351188077</v>
       </c>
       <c r="B15" t="n">
-        <v>49.37541145958193</v>
+        <v>49.01281209698452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-220.490410018742</v>
+        <v>-207.4705981212492</v>
       </c>
       <c r="B16" t="n">
-        <v>48.96325439161421</v>
+        <v>48.6225867867535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-205.6609080043308</v>
+        <v>-193.010147803322</v>
       </c>
       <c r="B17" t="n">
-        <v>48.57599036627614</v>
+        <v>48.25543336736199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-191.2500901018451</v>
+        <v>-178.9353697818079</v>
       </c>
       <c r="B18" t="n">
-        <v>48.21155591184542</v>
+        <v>47.90948991232359</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-177.2205927753244</v>
+        <v>-165.2132846276789</v>
       </c>
       <c r="B19" t="n">
-        <v>47.86811465448419</v>
+        <v>47.58310276834834</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-163.5400385307013</v>
+        <v>-151.8150467946928</v>
       </c>
       <c r="B20" t="n">
-        <v>47.54403994414483</v>
+        <v>47.27479318421722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-150.1799986817092</v>
+        <v>-138.7152176255904</v>
       </c>
       <c r="B21" t="n">
-        <v>47.2378693145061</v>
+        <v>46.98322872473361</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-137.1154399679706</v>
+        <v>-125.8913029647672</v>
       </c>
       <c r="B22" t="n">
-        <v>46.94828882798506</v>
+        <v>46.70720954270267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-124.3241885910321</v>
+        <v>-113.3232959014369</v>
       </c>
       <c r="B23" t="n">
-        <v>46.67411314935458</v>
+        <v>46.44565093146345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-111.7865824343094</v>
+        <v>-100.9933241467511</v>
       </c>
       <c r="B24" t="n">
-        <v>46.41427609539726</v>
+        <v>46.1975692487508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-99.4848503161455</v>
+        <v>-88.88528117350343</v>
       </c>
       <c r="B25" t="n">
-        <v>46.16779317563785</v>
+        <v>45.96206391157325</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-87.40319893495008</v>
+        <v>-76.98469185246165</v>
       </c>
       <c r="B26" t="n">
-        <v>45.93378360039154</v>
+        <v>45.73831704999431</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-75.52731127180689</v>
+        <v>-65.27842139053173</v>
       </c>
       <c r="B27" t="n">
-        <v>45.71143617608192</v>
+        <v>45.52557703209693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-63.8441846093317</v>
+        <v>-53.75452517249462</v>
       </c>
       <c r="B28" t="n">
-        <v>45.50000528811724</v>
+        <v>45.32315303156158</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-52.34207673345061</v>
+        <v>-42.4021424052842</v>
       </c>
       <c r="B29" t="n">
-        <v>45.29881315603276</v>
+        <v>45.13041217639868</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-41.01021077843897</v>
+        <v>-31.21134835579261</v>
       </c>
       <c r="B30" t="n">
-        <v>45.10723003448312</v>
+        <v>44.94677188537085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-29.838732976897</v>
+        <v>-20.17301093978746</v>
       </c>
       <c r="B31" t="n">
-        <v>44.92467541837782</v>
+        <v>44.77169107819513</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-18.81866343675426</v>
+        <v>-9.27877022182509</v>
       </c>
       <c r="B32" t="n">
-        <v>44.75061899368634</v>
+        <v>44.60467288071449</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-7.941663593013986</v>
+        <v>1.479142643763372</v>
       </c>
       <c r="B33" t="n">
-        <v>44.58456236107429</v>
+        <v>44.44525046317035</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2.799904455856626</v>
+        <v>12.10785452187448</v>
       </c>
       <c r="B34" t="n">
-        <v>44.42604844741371</v>
+        <v>44.29299587281143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>13.41311117864242</v>
+        <v>22.61397574269618</v>
       </c>
       <c r="B35" t="n">
-        <v>44.27465190601403</v>
+        <v>44.14751016993046</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>23.9045298819439</v>
+        <v>33.00366278654908</v>
       </c>
       <c r="B36" t="n">
-        <v>44.1299749021883</v>
+        <v>44.00841957761696</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34.28020347404024</v>
+        <v>43.2826143221718</v>
       </c>
       <c r="B37" t="n">
-        <v>43.99165286876381</v>
+        <v>43.87537823996912</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44.54584154764709</v>
+        <v>53.45614571169123</v>
       </c>
       <c r="B38" t="n">
-        <v>43.85933654296137</v>
+        <v>43.74806274231928</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>54.70669335792599</v>
+        <v>63.52923215724812</v>
       </c>
       <c r="B39" t="n">
-        <v>43.73270740668192</v>
+        <v>43.62616919470413</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>64.76768522106248</v>
+        <v>73.50648728641195</v>
       </c>
       <c r="B40" t="n">
-        <v>43.61146471980577</v>
+        <v>43.50941712621988</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>74.73342485233296</v>
+        <v>83.39230244083805</v>
       </c>
       <c r="B41" t="n">
-        <v>43.49532697806286</v>
+        <v>43.39753609320496</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>84.60820623726455</v>
+        <v>93.19072180356076</v>
       </c>
       <c r="B42" t="n">
-        <v>43.38403228457685</v>
+        <v>43.29027999032956</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>94.39609469010443</v>
+        <v>102.9055612015979</v>
       </c>
       <c r="B43" t="n">
-        <v>43.27733124780921</v>
+        <v>43.18741615376891</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>104.1008620630689</v>
+        <v>112.5404351216524</v>
       </c>
       <c r="B44" t="n">
-        <v>43.17499435570232</v>
+        <v>43.08872284380774</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>113.7260837920128</v>
+        <v>122.0986990148276</v>
       </c>
       <c r="B45" t="n">
-        <v>43.07680256975016</v>
+        <v>42.99399670323704</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>123.2751175614782</v>
+        <v>131.5835769638648</v>
       </c>
       <c r="B46" t="n">
-        <v>42.98255121722063</v>
+        <v>42.90303881771145</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>132.7511442076206</v>
+        <v>140.9980653872597</v>
       </c>
       <c r="B47" t="n">
-        <v>42.89204528738338</v>
+        <v>42.81566741355685</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>142.1571135315126</v>
+        <v>150.3449706535316</v>
       </c>
       <c r="B48" t="n">
-        <v>42.80510739007436</v>
+        <v>42.73171394007959</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>151.4958593620831</v>
+        <v>159.6270118488362</v>
       </c>
       <c r="B49" t="n">
-        <v>42.72156401832019</v>
+        <v>42.65101093083785</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>160.770063336148</v>
+        <v>168.8467099440935</v>
       </c>
       <c r="B50" t="n">
-        <v>42.64125198532671</v>
+        <v>42.57340723702021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>169.9822233081747</v>
+        <v>178.0064855337172</v>
       </c>
       <c r="B51" t="n">
-        <v>42.56402102329412</v>
+        <v>42.49875533139937</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>179.1347353901955</v>
+        <v>187.1085940439045</v>
       </c>
       <c r="B52" t="n">
-        <v>42.48972635042003</v>
+        <v>42.42692059877682</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>188.2298755833247</v>
+        <v>196.155209765035</v>
       </c>
       <c r="B53" t="n">
-        <v>42.41822988538505</v>
+        <v>42.35777173982493</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>197.2697770631009</v>
+        <v>205.1483787848113</v>
       </c>
       <c r="B54" t="n">
-        <v>42.34940429562608</v>
+        <v>42.29118654119401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>206.2564703395816</v>
+        <v>214.090051765371</v>
       </c>
       <c r="B55" t="n">
-        <v>42.28312864757869</v>
+        <v>42.2270485490872</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>215.1919121465101</v>
+        <v>222.9820770264741</v>
       </c>
       <c r="B56" t="n">
-        <v>42.2192845942562</v>
+        <v>42.16524749621686</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>224.0779240968942</v>
+        <v>231.8262231689834</v>
       </c>
       <c r="B57" t="n">
-        <v>42.15776521350778</v>
+        <v>42.10567841146129</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>232.9162735611943</v>
+        <v>240.6241655646026</v>
       </c>
       <c r="B58" t="n">
-        <v>42.09846454143836</v>
+        <v>42.04824218707003</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>241.7086134035626</v>
+        <v>249.3774993472771</v>
       </c>
       <c r="B59" t="n">
-        <v>42.04128584704333</v>
+        <v>41.99284540531764</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>250.4565443337283</v>
+        <v>258.0877700219445</v>
       </c>
       <c r="B60" t="n">
-        <v>41.98613403238064</v>
+        <v>41.93939505050722</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>259.1615895682973</v>
+        <v>266.7563924113195</v>
       </c>
       <c r="B61" t="n">
-        <v>41.93291918405975</v>
+        <v>41.88781191385911</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>267.8251470187313</v>
+        <v>275.3847680867908</v>
       </c>
       <c r="B62" t="n">
-        <v>41.88156322981543</v>
+        <v>41.83801296084885</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>276.4486489388752</v>
+        <v>283.9742100097687</v>
       </c>
       <c r="B63" t="n">
-        <v>41.83197824944303</v>
+        <v>41.78992305538638</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>285.0333781751586</v>
+        <v>292.5260014253171</v>
       </c>
       <c r="B64" t="n">
-        <v>41.78409285437979</v>
+        <v>41.74346650695427</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>293.5806036957198</v>
+        <v>301.0413407330738</v>
       </c>
       <c r="B65" t="n">
-        <v>41.73783265751465</v>
+        <v>41.69857521479604</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>302.0915140607952</v>
+        <v>309.5213831852338</v>
       </c>
       <c r="B66" t="n">
-        <v>41.69313072155116</v>
+        <v>41.65518295826981</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>310.5672749084601</v>
+        <v>317.9672358783133</v>
       </c>
       <c r="B67" t="n">
-        <v>41.64991893476139</v>
+        <v>41.61322692484171</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>319.0089763797171</v>
+        <v>326.3799574605766</v>
       </c>
       <c r="B68" t="n">
-        <v>41.60813584697483</v>
+        <v>41.57264669039281</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>327.4176710994752</v>
+        <v>334.7605643638912</v>
       </c>
       <c r="B69" t="n">
-        <v>41.56772228405815</v>
+        <v>41.53338468637216</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>335.7943619589728</v>
+        <v>343.1099983142942</v>
       </c>
       <c r="B70" t="n">
-        <v>41.52862144693952</v>
+        <v>41.49539076903316</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>344.1400121663219</v>
+        <v>351.4292177318595</v>
       </c>
       <c r="B71" t="n">
-        <v>41.49078019232008</v>
+        <v>41.4586087226261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>352.4555709508559</v>
+        <v>359.7191165375762</v>
       </c>
       <c r="B72" t="n">
-        <v>41.45414268578847</v>
+        <v>41.42298861205997</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>360.7418865386311</v>
+        <v>367.9805195018171</v>
       </c>
       <c r="B73" t="n">
-        <v>41.41866579292857</v>
+        <v>41.38848808550136</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>368.999842972106</v>
+        <v>376.2142763904725</v>
       </c>
       <c r="B74" t="n">
-        <v>41.38429743981349</v>
+        <v>41.35505690504484</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>377.2302358145963</v>
+        <v>384.4211694642041</v>
       </c>
       <c r="B75" t="n">
-        <v>41.35099587601651</v>
+        <v>41.32265366903047</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>385.4338551333783</v>
+        <v>392.6019405677135</v>
       </c>
       <c r="B76" t="n">
-        <v>41.31871761658776</v>
+        <v>41.29123904309369</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>393.6114522632674</v>
+        <v>400.7573232250001</v>
       </c>
       <c r="B77" t="n">
-        <v>41.28742163269811</v>
+        <v>41.26077269631329</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>401.7637453223663</v>
+        <v>408.8880245306248</v>
       </c>
       <c r="B78" t="n">
-        <v>41.25707049406002</v>
+        <v>41.2312157819086</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>409.8914363971262</v>
+        <v>416.9946978283286</v>
       </c>
       <c r="B79" t="n">
-        <v>41.22762421445392</v>
+        <v>41.20253518056172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>417.9951916229473</v>
+        <v>425.0780089187184</v>
       </c>
       <c r="B80" t="n">
-        <v>41.19904806047724</v>
+        <v>41.17469359983893</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>426.0756537519224</v>
+        <v>433.1385609217829</v>
       </c>
       <c r="B81" t="n">
-        <v>41.1713088475007</v>
+        <v>41.14766004106801</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>434.1334332059058</v>
+        <v>441.1769573817579</v>
       </c>
       <c r="B82" t="n">
-        <v>41.14437416749617</v>
+        <v>41.1214040631998</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>442.1691299262084</v>
+        <v>449.1937749413499</v>
       </c>
       <c r="B83" t="n">
-        <v>41.1182114912845</v>
+        <v>41.09589417972077</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>450.1833259767697</v>
+        <v>457.1895671695858</v>
       </c>
       <c r="B84" t="n">
-        <v>41.09279001564544</v>
+        <v>41.07110152357573</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>458.1765580083942</v>
+        <v>465.1648656383367</v>
       </c>
       <c r="B85" t="n">
-        <v>41.06808406013904</v>
+        <v>41.04699911503572</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>466.1493505064486</v>
+        <v>473.120184310558</v>
       </c>
       <c r="B86" t="n">
-        <v>41.04406740675324</v>
+        <v>41.02356121563121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>474.1022358190936</v>
+        <v>481.056014528922</v>
       </c>
       <c r="B87" t="n">
-        <v>41.02070994521662</v>
+        <v>41.00076309336198</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>482.0356918940236</v>
+        <v>488.9728411060948</v>
       </c>
       <c r="B88" t="n">
-        <v>40.99798842190786</v>
+        <v>40.97857896826347</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>489.9502041586342</v>
+        <v>496.8711264083544</v>
       </c>
       <c r="B89" t="n">
-        <v>40.97587792263491</v>
+        <v>40.95698582954779</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>497.8462226662587</v>
+        <v>504.7513035734607</v>
       </c>
       <c r="B90" t="n">
-        <v>40.95435688074087</v>
+        <v>40.9359633043921</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>505.7241970622071</v>
+        <v>512.6138096191434</v>
       </c>
       <c r="B91" t="n">
-        <v>40.93340239014528</v>
+        <v>40.91548814096833</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>513.5845460043851</v>
+        <v>520.4590549474675</v>
       </c>
       <c r="B92" t="n">
-        <v>40.91299425839183</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>521.4276848748796</v>
-      </c>
-      <c r="B93" t="n">
-        <v>40.89311240762769</v>
+        <v>40.89554227630511</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_60.xlsx
+++ b/Reverse_anglesIn_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,730 +440,706 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-495.3132398834571</v>
+        <v>-0.5216745459112635</v>
       </c>
       <c r="B2" t="n">
-        <v>57.81624101431147</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-463.9505539648974</v>
+        <v>-0.5096733457912509</v>
       </c>
       <c r="B3" t="n">
-        <v>56.72099668185281</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-435.7493141243253</v>
+        <v>-0.4976721456712409</v>
       </c>
       <c r="B4" t="n">
-        <v>55.73748574690918</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-410.0150763420276</v>
+        <v>-0.4856709455512273</v>
       </c>
       <c r="B5" t="n">
-        <v>54.84731395942575</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-386.2562410859509</v>
+        <v>-0.4736697454312156</v>
       </c>
       <c r="B6" t="n">
-        <v>54.03640845425514</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-364.1132727749131</v>
+        <v>-0.4616685453112032</v>
       </c>
       <c r="B7" t="n">
-        <v>53.29373445894104</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-343.3159766611511</v>
+        <v>-0.4496673451911906</v>
       </c>
       <c r="B8" t="n">
-        <v>52.61046028562456</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-323.6563553483092</v>
+        <v>-0.4376661450711794</v>
       </c>
       <c r="B9" t="n">
-        <v>51.97938007393375</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-304.9712167003029</v>
+        <v>-0.4256649449511669</v>
       </c>
       <c r="B10" t="n">
-        <v>51.39453500115486</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-287.1302841159158</v>
+        <v>-0.4136637448311555</v>
       </c>
       <c r="B11" t="n">
-        <v>50.85093296233484</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-270.0279271356117</v>
+        <v>-0.4016625447111435</v>
       </c>
       <c r="B12" t="n">
-        <v>50.34434163814588</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-253.5773604357529</v>
+        <v>-0.3896613445911514</v>
       </c>
       <c r="B13" t="n">
-        <v>49.8711383594408</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-237.706497403797</v>
+        <v>-0.3776601444711178</v>
       </c>
       <c r="B14" t="n">
-        <v>49.42820109586672</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-222.3547351188077</v>
+        <v>-0.3656589443511068</v>
       </c>
       <c r="B15" t="n">
-        <v>49.01281209698452</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-207.4705981212492</v>
+        <v>-0.3536577442310964</v>
       </c>
       <c r="B16" t="n">
-        <v>48.6225867867535</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-193.010147803322</v>
+        <v>-0.3416565441110834</v>
       </c>
       <c r="B17" t="n">
-        <v>48.25543336736199</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-178.9353697818079</v>
+        <v>-0.3296553439910707</v>
       </c>
       <c r="B18" t="n">
-        <v>47.90948991232359</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-165.2132846276789</v>
+        <v>-0.31765414387106</v>
       </c>
       <c r="B19" t="n">
-        <v>47.58310276834834</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-151.8150467946928</v>
+        <v>-0.3056529437510471</v>
       </c>
       <c r="B20" t="n">
-        <v>47.27479318421722</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-138.7152176255904</v>
+        <v>-0.2936517436310367</v>
       </c>
       <c r="B21" t="n">
-        <v>46.98322872473361</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-125.8913029647672</v>
+        <v>-0.2816505435110241</v>
       </c>
       <c r="B22" t="n">
-        <v>46.70720954270267</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-113.3232959014369</v>
+        <v>-0.2696493433910113</v>
       </c>
       <c r="B23" t="n">
-        <v>46.44565093146345</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-100.9933241467511</v>
+        <v>-0.2576481432710014</v>
       </c>
       <c r="B24" t="n">
-        <v>46.1975692487508</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-88.88528117350343</v>
+        <v>-0.2456469431509883</v>
       </c>
       <c r="B25" t="n">
-        <v>45.96206391157325</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-76.98469185246165</v>
+        <v>-0.2336457430309758</v>
       </c>
       <c r="B26" t="n">
-        <v>45.73831704999431</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-65.27842139053173</v>
+        <v>-0.2216445429109649</v>
       </c>
       <c r="B27" t="n">
-        <v>45.52557703209693</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-53.75452517249462</v>
+        <v>-0.2096433427909529</v>
       </c>
       <c r="B28" t="n">
-        <v>45.32315303156158</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-42.4021424052842</v>
+        <v>-0.1976421426709416</v>
       </c>
       <c r="B29" t="n">
-        <v>45.13041217639868</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-31.21134835579261</v>
+        <v>-0.185640942550929</v>
       </c>
       <c r="B30" t="n">
-        <v>44.94677188537085</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-20.17301093978746</v>
+        <v>-0.1736397424309164</v>
       </c>
       <c r="B31" t="n">
-        <v>44.77169107819513</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-9.27877022182509</v>
+        <v>-0.161638542310906</v>
       </c>
       <c r="B32" t="n">
-        <v>44.60467288071449</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1.479142643763372</v>
+        <v>-0.1496373421908936</v>
       </c>
       <c r="B33" t="n">
-        <v>44.44525046317035</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12.10785452187448</v>
+        <v>-0.1376361420708831</v>
       </c>
       <c r="B34" t="n">
-        <v>44.29299587281143</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22.61397574269618</v>
+        <v>-0.1256349419508704</v>
       </c>
       <c r="B35" t="n">
-        <v>44.14751016993046</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33.00366278654908</v>
+        <v>-0.1136337418308587</v>
       </c>
       <c r="B36" t="n">
-        <v>44.00841957761696</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>43.2826143221718</v>
+        <v>-0.101632541710848</v>
       </c>
       <c r="B37" t="n">
-        <v>43.87537823996912</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>53.45614571169123</v>
+        <v>-0.08963134159083529</v>
       </c>
       <c r="B38" t="n">
-        <v>43.74806274231928</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>63.52923215724812</v>
+        <v>-0.07763014147082543</v>
       </c>
       <c r="B39" t="n">
-        <v>43.62616919470413</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>73.50648728641195</v>
+        <v>-0.06562894135081271</v>
       </c>
       <c r="B40" t="n">
-        <v>43.50941712621988</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>83.39230244083805</v>
+        <v>-0.05362774123080054</v>
       </c>
       <c r="B41" t="n">
-        <v>43.39753609320496</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>93.19072180356076</v>
+        <v>-0.04162654111079032</v>
       </c>
       <c r="B42" t="n">
-        <v>43.29027999032956</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>102.9055612015979</v>
+        <v>-0.02962534099077779</v>
       </c>
       <c r="B43" t="n">
-        <v>43.18741615376891</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>112.5404351216524</v>
+        <v>-0.01762414087076759</v>
       </c>
       <c r="B44" t="n">
-        <v>43.08872284380774</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>122.0986990148276</v>
+        <v>-0.005622940750755393</v>
       </c>
       <c r="B45" t="n">
-        <v>42.99399670323704</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>131.5835769638648</v>
+        <v>0.006378259369257228</v>
       </c>
       <c r="B46" t="n">
-        <v>42.90303881771145</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>140.9980653872597</v>
+        <v>0.01837945948926704</v>
       </c>
       <c r="B47" t="n">
-        <v>42.81566741355685</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>150.3449706535316</v>
+        <v>0.03038065960927907</v>
       </c>
       <c r="B48" t="n">
-        <v>42.73171394007959</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>159.6270118488362</v>
+        <v>0.04238185972928952</v>
       </c>
       <c r="B49" t="n">
-        <v>42.65101093083785</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>168.8467099440935</v>
+        <v>0.05438305984930228</v>
       </c>
       <c r="B50" t="n">
-        <v>42.57340723702021</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>178.0064855337172</v>
+        <v>0.06638425996931416</v>
       </c>
       <c r="B51" t="n">
-        <v>42.49875533139937</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>187.1085940439045</v>
+        <v>0.07838546008932472</v>
       </c>
       <c r="B52" t="n">
-        <v>42.42692059877682</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>196.155209765035</v>
+        <v>0.09038666020933674</v>
       </c>
       <c r="B53" t="n">
-        <v>42.35777173982493</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>205.1483787848113</v>
+        <v>0.1023878603293474</v>
       </c>
       <c r="B54" t="n">
-        <v>42.29118654119401</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>214.090051765371</v>
+        <v>0.1143890604493596</v>
       </c>
       <c r="B55" t="n">
-        <v>42.2270485490872</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>222.9820770264741</v>
+        <v>0.1263902605693717</v>
       </c>
       <c r="B56" t="n">
-        <v>42.16524749621686</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>231.8262231689834</v>
+        <v>0.1383914606893828</v>
       </c>
       <c r="B57" t="n">
-        <v>42.10567841146129</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>240.6241655646026</v>
+        <v>0.1503926608093951</v>
       </c>
       <c r="B58" t="n">
-        <v>42.04824218707003</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>249.3774993472771</v>
+        <v>0.162393860929406</v>
       </c>
       <c r="B59" t="n">
-        <v>41.99284540531764</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>258.0877700219445</v>
+        <v>0.1743950610494183</v>
       </c>
       <c r="B60" t="n">
-        <v>41.93939505050722</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>266.7563924113195</v>
+        <v>0.1863962611694308</v>
       </c>
       <c r="B61" t="n">
-        <v>41.88781191385911</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>275.3847680867908</v>
+        <v>0.1983974612894411</v>
       </c>
       <c r="B62" t="n">
-        <v>41.83801296084885</v>
+        <v>60.00000000000004</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>283.9742100097687</v>
+        <v>0.2103986614094541</v>
       </c>
       <c r="B63" t="n">
-        <v>41.78992305538638</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>292.5260014253171</v>
+        <v>0.2223998615294651</v>
       </c>
       <c r="B64" t="n">
-        <v>41.74346650695427</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>301.0413407330738</v>
+        <v>0.2344010616494781</v>
       </c>
       <c r="B65" t="n">
-        <v>41.69857521479604</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>309.5213831852338</v>
+        <v>0.2464022617695241</v>
       </c>
       <c r="B66" t="n">
-        <v>41.65518295826981</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>317.9672358783133</v>
+        <v>0.2584034618895207</v>
       </c>
       <c r="B67" t="n">
-        <v>41.61322692484171</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>326.3799574605766</v>
+        <v>0.2704046620095249</v>
       </c>
       <c r="B68" t="n">
-        <v>41.57264669039281</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>334.7605643638912</v>
+        <v>0.2824058621295311</v>
       </c>
       <c r="B69" t="n">
-        <v>41.53338468637216</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>343.1099983142942</v>
+        <v>0.2944070622495409</v>
       </c>
       <c r="B70" t="n">
-        <v>41.49539076903316</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>351.4292177318595</v>
+        <v>0.306408262369552</v>
       </c>
       <c r="B71" t="n">
-        <v>41.4586087226261</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>359.7191165375762</v>
+        <v>0.3184094624895625</v>
       </c>
       <c r="B72" t="n">
-        <v>41.42298861205997</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>367.9805195018171</v>
+        <v>0.3304106626095751</v>
       </c>
       <c r="B73" t="n">
-        <v>41.38848808550136</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>376.2142763904725</v>
+        <v>0.3424118627295863</v>
       </c>
       <c r="B74" t="n">
-        <v>41.35505690504484</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>384.4211694642041</v>
+        <v>0.3544130628495989</v>
       </c>
       <c r="B75" t="n">
-        <v>41.32265366903047</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>392.6019405677135</v>
+        <v>0.3664142629696119</v>
       </c>
       <c r="B76" t="n">
-        <v>41.29123904309369</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>400.7573232250001</v>
+        <v>0.3784154630896235</v>
       </c>
       <c r="B77" t="n">
-        <v>41.26077269631329</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>408.8880245306248</v>
+        <v>0.3904166632096365</v>
       </c>
       <c r="B78" t="n">
-        <v>41.2312157819086</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>416.9946978283286</v>
+        <v>0.4024178633296475</v>
       </c>
       <c r="B79" t="n">
-        <v>41.20253518056172</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>425.0780089187184</v>
+        <v>0.4144190634496606</v>
       </c>
       <c r="B80" t="n">
-        <v>41.17469359983893</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>433.1385609217829</v>
+        <v>0.4264202635696737</v>
       </c>
       <c r="B81" t="n">
-        <v>41.14766004106801</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>441.1769573817579</v>
+        <v>0.4384214636896847</v>
       </c>
       <c r="B82" t="n">
-        <v>41.1214040631998</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>449.1937749413499</v>
+        <v>0.4504226638096983</v>
       </c>
       <c r="B83" t="n">
-        <v>41.09589417972077</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>457.1895671695858</v>
+        <v>0.4624238639297171</v>
       </c>
       <c r="B84" t="n">
-        <v>41.07110152357573</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>465.1648656383367</v>
+        <v>0.4744250640497223</v>
       </c>
       <c r="B85" t="n">
-        <v>41.04699911503572</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>473.120184310558</v>
+        <v>0.4864262641697362</v>
       </c>
       <c r="B86" t="n">
-        <v>41.02356121563121</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>481.056014528922</v>
+        <v>0.4984274642897471</v>
       </c>
       <c r="B87" t="n">
-        <v>41.00076309336198</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>488.9728411060948</v>
+        <v>0.51042866440976</v>
       </c>
       <c r="B88" t="n">
-        <v>40.97857896826347</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>496.8711264083544</v>
+        <v>0.5224298645297716</v>
       </c>
       <c r="B89" t="n">
-        <v>40.95698582954779</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>504.7513035734607</v>
-      </c>
-      <c r="B90" t="n">
-        <v>40.9359633043921</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>512.6138096191434</v>
-      </c>
-      <c r="B91" t="n">
-        <v>40.91548814096833</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>520.4590549474675</v>
-      </c>
-      <c r="B92" t="n">
-        <v>40.89554227630511</v>
+        <v>60.00000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_60.xlsx
+++ b/Reverse_anglesIn_60.xlsx
@@ -440,7 +440,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-0.5216745459112635</v>
+        <v>-0.5213247058072078</v>
       </c>
       <c r="B2" t="n">
         <v>59.99999999999999</v>
@@ -448,31 +448,31 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-0.5096733457912509</v>
+        <v>-0.5093235056871952</v>
       </c>
       <c r="B3" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-0.4976721456712409</v>
+        <v>-0.4973223055671844</v>
       </c>
       <c r="B4" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-0.4856709455512273</v>
+        <v>-0.4853211054471715</v>
       </c>
       <c r="B5" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-0.4736697454312156</v>
+        <v>-0.473319905327159</v>
       </c>
       <c r="B6" t="n">
         <v>59.99999999999999</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-0.4616685453112032</v>
+        <v>-0.4613187052071479</v>
       </c>
       <c r="B7" t="n">
         <v>59.99999999999999</v>
@@ -488,15 +488,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-0.4496673451911906</v>
+        <v>-0.4493175050871352</v>
       </c>
       <c r="B8" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-0.4376661450711794</v>
+        <v>-0.4373163049671243</v>
       </c>
       <c r="B9" t="n">
         <v>59.99999999999999</v>
@@ -504,15 +504,15 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-0.4256649449511669</v>
+        <v>-0.4253151048471118</v>
       </c>
       <c r="B10" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-0.4136637448311555</v>
+        <v>-0.4133139047270988</v>
       </c>
       <c r="B11" t="n">
         <v>59.99999999999999</v>
@@ -520,15 +520,15 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-0.4016625447111435</v>
+        <v>-0.4013127046070879</v>
       </c>
       <c r="B12" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-0.3896613445911514</v>
+        <v>-0.3893115044870751</v>
       </c>
       <c r="B13" t="n">
         <v>59.99999999999999</v>
@@ -536,31 +536,31 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-0.3776601444711178</v>
+        <v>-0.3773103043670641</v>
       </c>
       <c r="B14" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-0.3656589443511068</v>
+        <v>-0.3653091042470514</v>
       </c>
       <c r="B15" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-0.3536577442310964</v>
+        <v>-0.3533079041270387</v>
       </c>
       <c r="B16" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-0.3416565441110834</v>
+        <v>-0.3413067040070281</v>
       </c>
       <c r="B17" t="n">
         <v>59.99999999999999</v>
@@ -568,23 +568,23 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-0.3296553439910707</v>
+        <v>-0.3293055038870152</v>
       </c>
       <c r="B18" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-0.31765414387106</v>
+        <v>-0.3173043037670042</v>
       </c>
       <c r="B19" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-0.3056529437510471</v>
+        <v>-0.3053031036469915</v>
       </c>
       <c r="B20" t="n">
         <v>59.99999999999999</v>
@@ -592,23 +592,23 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-0.2936517436310367</v>
+        <v>-0.2933019035269787</v>
       </c>
       <c r="B21" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-0.2816505435110241</v>
+        <v>-0.2813007034069678</v>
       </c>
       <c r="B22" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-0.2696493433910113</v>
+        <v>-0.2692995032869552</v>
       </c>
       <c r="B23" t="n">
         <v>59.99999999999999</v>
@@ -616,15 +616,15 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-0.2576481432710014</v>
+        <v>-0.2572983031669421</v>
       </c>
       <c r="B24" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-0.2456469431509883</v>
+        <v>-0.2452971030469315</v>
       </c>
       <c r="B25" t="n">
         <v>59.99999999999999</v>
@@ -632,15 +632,15 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-0.2336457430309758</v>
+        <v>-0.2332959029269188</v>
       </c>
       <c r="B26" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-0.2216445429109649</v>
+        <v>-0.2212947028069078</v>
       </c>
       <c r="B27" t="n">
         <v>59.99999999999999</v>
@@ -648,15 +648,15 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-0.2096433427909529</v>
+        <v>-0.2092935026868951</v>
       </c>
       <c r="B28" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-0.1976421426709416</v>
+        <v>-0.1972923025668823</v>
       </c>
       <c r="B29" t="n">
         <v>59.99999999999999</v>
@@ -664,15 +664,15 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-0.185640942550929</v>
+        <v>-0.1852911024468715</v>
       </c>
       <c r="B30" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-0.1736397424309164</v>
+        <v>-0.1732899023268587</v>
       </c>
       <c r="B31" t="n">
         <v>59.99999999999999</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-0.161638542310906</v>
+        <v>-0.1612887022068477</v>
       </c>
       <c r="B32" t="n">
         <v>59.99999999999999</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-0.1496373421908936</v>
+        <v>-0.1492875020868351</v>
       </c>
       <c r="B33" t="n">
         <v>59.99999999999999</v>
@@ -696,15 +696,15 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-0.1376361420708831</v>
+        <v>-0.1372863019668224</v>
       </c>
       <c r="B34" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-0.1256349419508704</v>
+        <v>-0.1252851018468114</v>
       </c>
       <c r="B35" t="n">
         <v>59.99999999999999</v>
@@ -712,39 +712,39 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-0.1136337418308587</v>
+        <v>-0.1132839017267987</v>
       </c>
       <c r="B36" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-0.101632541710848</v>
+        <v>-0.1012827016067876</v>
       </c>
       <c r="B37" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-0.08963134159083529</v>
+        <v>-0.08928150148677495</v>
       </c>
       <c r="B38" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-0.07763014147082543</v>
+        <v>-0.07728030136676217</v>
       </c>
       <c r="B39" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-0.06562894135081271</v>
+        <v>-0.06527910124675149</v>
       </c>
       <c r="B40" t="n">
         <v>59.99999999999999</v>
@@ -752,39 +752,39 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-0.05362774123080054</v>
+        <v>-0.05327790112673872</v>
       </c>
       <c r="B41" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-0.04162654111079032</v>
+        <v>-0.0412767010067276</v>
       </c>
       <c r="B42" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-0.02962534099077779</v>
+        <v>-0.02927550088671494</v>
       </c>
       <c r="B43" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-0.01762414087076759</v>
+        <v>-0.01727430076670227</v>
       </c>
       <c r="B44" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-0.005622940750755393</v>
+        <v>-0.005273100646691393</v>
       </c>
       <c r="B45" t="n">
         <v>59.99999999999999</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0.006378259369257228</v>
+        <v>0.006728099473321326</v>
       </c>
       <c r="B46" t="n">
         <v>59.99999999999999</v>
@@ -800,31 +800,31 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0.01837945948926704</v>
+        <v>0.01872929959333212</v>
       </c>
       <c r="B47" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0.03038065960927907</v>
+        <v>0.03073049971334488</v>
       </c>
       <c r="B48" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0.04238185972928952</v>
+        <v>0.04273169983335754</v>
       </c>
       <c r="B49" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0.05438305984930228</v>
+        <v>0.05473289995336876</v>
       </c>
       <c r="B50" t="n">
         <v>59.99999999999999</v>
@@ -832,15 +832,15 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0.06638425996931416</v>
+        <v>0.06673410007338143</v>
       </c>
       <c r="B51" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0.07838546008932472</v>
+        <v>0.07873530019339216</v>
       </c>
       <c r="B52" t="n">
         <v>59.99999999999999</v>
@@ -848,15 +848,15 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0.09038666020933674</v>
+        <v>0.09073650031340498</v>
       </c>
       <c r="B53" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>0.1023878603293474</v>
+        <v>0.1027377004334177</v>
       </c>
       <c r="B54" t="n">
         <v>59.99999999999999</v>
@@ -864,23 +864,23 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0.1143890604493596</v>
+        <v>0.1147389005534286</v>
       </c>
       <c r="B55" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0.1263902605693717</v>
+        <v>0.1267401006734413</v>
       </c>
       <c r="B56" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0.1383914606893828</v>
+        <v>0.1387413007934522</v>
       </c>
       <c r="B57" t="n">
         <v>59.99999999999999</v>
@@ -888,15 +888,15 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0.1503926608093951</v>
+        <v>0.150742500913465</v>
       </c>
       <c r="B58" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0.162393860929406</v>
+        <v>0.1627437010334778</v>
       </c>
       <c r="B59" t="n">
         <v>59.99999999999999</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0.1743950610494183</v>
+        <v>0.1747449011534887</v>
       </c>
       <c r="B60" t="n">
         <v>59.99999999999999</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0.1863962611694308</v>
+        <v>0.1867461012735014</v>
       </c>
       <c r="B61" t="n">
         <v>59.99999999999999</v>
@@ -920,15 +920,15 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0.1983974612894411</v>
+        <v>0.1987473013935121</v>
       </c>
       <c r="B62" t="n">
-        <v>60.00000000000004</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0.2103986614094541</v>
+        <v>0.2107485015135249</v>
       </c>
       <c r="B63" t="n">
         <v>59.99999999999999</v>
@@ -936,15 +936,15 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0.2223998615294651</v>
+        <v>0.2227497016335377</v>
       </c>
       <c r="B64" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0.2344010616494781</v>
+        <v>0.2347509017535485</v>
       </c>
       <c r="B65" t="n">
         <v>59.99999999999999</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0.2464022617695241</v>
+        <v>0.2467521018735614</v>
       </c>
       <c r="B66" t="n">
         <v>59.99999999999999</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0.2584034618895207</v>
+        <v>0.2587533019935722</v>
       </c>
       <c r="B67" t="n">
         <v>59.99999999999999</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0.2704046620095249</v>
+        <v>0.270754502113585</v>
       </c>
       <c r="B68" t="n">
         <v>59.99999999999999</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0.2824058621295311</v>
+        <v>0.2827557022335979</v>
       </c>
       <c r="B69" t="n">
         <v>59.99999999999999</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0.2944070622495409</v>
+        <v>0.2947569023536087</v>
       </c>
       <c r="B70" t="n">
         <v>59.99999999999999</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.306408262369552</v>
+        <v>0.3067581024736213</v>
       </c>
       <c r="B71" t="n">
         <v>59.99999999999999</v>
@@ -1000,15 +1000,15 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0.3184094624895625</v>
+        <v>0.3187593025936323</v>
       </c>
       <c r="B72" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0.3304106626095751</v>
+        <v>0.3307605027136449</v>
       </c>
       <c r="B73" t="n">
         <v>59.99999999999999</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>0.3424118627295863</v>
+        <v>0.3427617028336579</v>
       </c>
       <c r="B74" t="n">
         <v>59.99999999999999</v>
@@ -1024,15 +1024,15 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0.3544130628495989</v>
+        <v>0.3547629029536686</v>
       </c>
       <c r="B75" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>0.3664142629696119</v>
+        <v>0.3667641030736813</v>
       </c>
       <c r="B76" t="n">
         <v>59.99999999999999</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>0.3784154630896235</v>
+        <v>0.3787653031936923</v>
       </c>
       <c r="B77" t="n">
         <v>59.99999999999999</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0.3904166632096365</v>
+        <v>0.390766503313705</v>
       </c>
       <c r="B78" t="n">
         <v>59.99999999999999</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0.4024178633296475</v>
+        <v>0.4027677034337177</v>
       </c>
       <c r="B79" t="n">
         <v>59.99999999999999</v>
@@ -1064,23 +1064,23 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0.4144190634496606</v>
+        <v>0.4147689035537287</v>
       </c>
       <c r="B80" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0.4264202635696737</v>
+        <v>0.4267701036737414</v>
       </c>
       <c r="B81" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0.4384214636896847</v>
+        <v>0.4387713037937524</v>
       </c>
       <c r="B82" t="n">
         <v>59.99999999999999</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>0.4504226638096983</v>
+        <v>0.4507725039137651</v>
       </c>
       <c r="B83" t="n">
         <v>59.99999999999999</v>
@@ -1096,15 +1096,15 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0.4624238639297171</v>
+        <v>0.4627737040337778</v>
       </c>
       <c r="B84" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0.4744250640497223</v>
+        <v>0.474774904153789</v>
       </c>
       <c r="B85" t="n">
         <v>59.99999999999999</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0.4864262641697362</v>
+        <v>0.4867761042738014</v>
       </c>
       <c r="B86" t="n">
         <v>59.99999999999999</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0.4984274642897471</v>
+        <v>0.4987773043938125</v>
       </c>
       <c r="B87" t="n">
         <v>59.99999999999999</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>0.51042866440976</v>
+        <v>0.5107785045138252</v>
       </c>
       <c r="B88" t="n">
         <v>59.99999999999999</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0.5224298645297716</v>
+        <v>0.5227797046338378</v>
       </c>
       <c r="B89" t="n">
-        <v>60.00000000000002</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
   </sheetData>
